--- a/rankings.xlsx
+++ b/rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Desktop\WorkingNow\BigD\bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FC2D4-4975-468E-98B0-B3602765E2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5C856-8AEF-4651-B3F1-CD2A21482F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="264" yWindow="1488" windowWidth="8328" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>RANKS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,476 +345,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>134</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>226</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>123</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>123</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>169</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>240</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>194</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>30</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>149</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>214</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>51</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>67</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>221</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>11</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>195</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>111</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>71</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>200</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>174</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>30</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>246</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>184</v>
       </c>
     </row>
